--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P36_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P36_trail10 Features.xlsx
@@ -4169,7 +4169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4180,29 +4180,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4223,115 +4221,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4348,72 +4336,66 @@
         <v>6.03192083118017e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.5745732154264318</v>
+        <v>1.600307491748243e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.293397026698279</v>
+        <v>1.559254025279653e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.600307491748243e-06</v>
+        <v>0.03826116193692352</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.559254025279653e-06</v>
+        <v>0.06688132188953022</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.03826116193692352</v>
+        <v>0.005937022138115948</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.06688132188953022</v>
+        <v>1.238121179341422</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.005937022138115948</v>
+        <v>1.382832581656171</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.181351320569108</v>
+        <v>3.705421046243238</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.382832581656171</v>
+        <v>3.284031764851926e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.705421046243238</v>
+        <v>8291822.687866167</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.284031764851926e-14</v>
+        <v>9.150927929776307e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>8291822.687866167</v>
+        <v>2.257913823022526</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>9.150927929776307e-06</v>
+        <v>0.0001534029266302186</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>2.257913823022526</v>
+        <v>9.236410873251364</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001534029266302186</v>
+        <v>1.291482453576529</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.236410873251364</v>
+        <v>0.01308700091930083</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.291482453576529</v>
+        <v>2.734603156070665</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01308700091930083</v>
+        <v>0.8721385773492172</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.734603156070665</v>
+        <v>1.960957700340636</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.8721385773492172</v>
+        <v>4</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.960957700340636</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1695261185826583</v>
       </c>
     </row>
@@ -4428,72 +4410,66 @@
         <v>6.070482613878967e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.5026226312573242</v>
+        <v>1.599612946854391e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.383608108822732</v>
+        <v>1.582061447999661e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.599612946854391e-06</v>
+        <v>0.03711331655944544</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.582061447999661e-06</v>
+        <v>0.06731678047475341</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.03711331655944544</v>
+        <v>0.005908961397318501</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.06731678047475341</v>
+        <v>1.273655199171443</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.005908961397318501</v>
+        <v>1.30175494671401</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.208087241605378</v>
+        <v>3.744124850297916</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.30175494671401</v>
+        <v>3.216487238994624e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.744124850297916</v>
+        <v>7729493.690762363</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.216487238994624e-14</v>
+        <v>1.057211459833196e-05</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>7729493.690762363</v>
+        <v>1.921692639823248</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.057211459833196e-05</v>
+        <v>0.0001354193715978552</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1.921692639823248</v>
+        <v>8.093457834215366</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001354193715978552</v>
+        <v>1.358696626035259</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.093457834215366</v>
+        <v>0.008870518603608338</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.358696626035259</v>
+        <v>2.913302927625586</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.008870518603608338</v>
+        <v>0.8804510215776523</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.913302927625586</v>
+        <v>1.950090274510297</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.8804510215776523</v>
+        <v>7</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.950090274510297</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1872233894000583</v>
       </c>
     </row>
@@ -4508,72 +4484,66 @@
         <v>6.094434641240874e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.4327043090409858</v>
+        <v>1.597286999048262e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.457797009631469</v>
+        <v>1.604340696928233e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.597286999048262e-06</v>
+        <v>0.03615050154310957</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.604340696928233e-06</v>
+        <v>0.06774740296330749</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.03615050154310957</v>
+        <v>0.005896633350413061</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.06774740296330749</v>
+        <v>1.30606810695476</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.005896633350413061</v>
+        <v>1.291541742153691</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.235456980679798</v>
+        <v>3.94635057481935</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.291541742153691</v>
+        <v>2.380786336733701e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.94635057481935</v>
+        <v>10376018.93757226</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.380786336733701e-14</v>
+        <v>8.220992096397157e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>10376018.93757226</v>
+        <v>2.563196686067767</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>8.220992096397157e-06</v>
+        <v>0.0001344795097160026</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>2.563196686067767</v>
+        <v>8.071542903778447</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001344795097160026</v>
+        <v>1.46274074790994</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.071542903778447</v>
+        <v>0.008761313813989913</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.46274074790994</v>
+        <v>2.910560218087172</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.008761313813989913</v>
+        <v>0.8842723173249166</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.910560218087172</v>
+        <v>1.938052750613865</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.8842723173249166</v>
+        <v>7</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.938052750613865</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1987346109939909</v>
       </c>
     </row>
@@ -4588,72 +4558,66 @@
         <v>6.106222577839031e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.3645756330131424</v>
+        <v>1.592605517004425e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.51760353646496</v>
+        <v>1.626159209475744e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.592605517004425e-06</v>
+        <v>0.03538957120967614</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.626159209475744e-06</v>
+        <v>0.0681150913167744</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.03538957120967614</v>
+        <v>0.005892189616268312</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.0681150913167744</v>
+        <v>1.344554384120227</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.005892189616268312</v>
+        <v>1.385974747879331</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.270787316850279</v>
+        <v>3.994320937510738</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.385974747879331</v>
+        <v>1.846388533577627e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.994320937510738</v>
+        <v>13508024.352038</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.846388533577627e-14</v>
+        <v>6.520004762542279e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>13508024.352038</v>
+        <v>3.369044630668903</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>6.520004762542279e-06</v>
+        <v>0.0001356088175177714</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>3.369044630668903</v>
+        <v>7.874513372390705</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001356088175177714</v>
+        <v>1.362586231335709</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.874513372390705</v>
+        <v>0.008408826247822564</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.362586231335709</v>
+        <v>2.951784196839852</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.008408826247822564</v>
+        <v>0.9013463394004716</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.951784196839852</v>
+        <v>1.94143935220752</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9013463394004716</v>
+        <v>7</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.94143935220752</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1786577485417008</v>
       </c>
     </row>
@@ -4668,72 +4632,66 @@
         <v>6.108022179962246e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.2978821541953222</v>
+        <v>1.587329985460495e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.564465096890956</v>
+        <v>1.647562428691034e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.587329985460495e-06</v>
+        <v>0.03466091347796189</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.647562428691034e-06</v>
+        <v>0.06855357383784538</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.03466091347796189</v>
+        <v>0.005901038187728113</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.06855357383784538</v>
+        <v>1.382912364461974</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.005901038187728113</v>
+        <v>1.40100150839831</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.302091088648452</v>
+        <v>4.095150000039718</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.40100150839831</v>
+        <v>1.756585850030059e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.095150000039718</v>
+        <v>13860875.11532182</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.756585850030059e-14</v>
+        <v>6.670548156673637e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>13860875.11532182</v>
+        <v>3.374820521067819</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>6.670548156673637e-06</v>
+        <v>0.0001541013359495321</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>3.374820521067819</v>
+        <v>9.361775636888494</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001541013359495321</v>
+        <v>1.256806070200528</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.361775636888494</v>
+        <v>0.01350587920434034</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.256806070200528</v>
+        <v>2.77391140072121</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01350587920434034</v>
+        <v>0.9192844449487025</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.77391140072121</v>
+        <v>1.938773261421363</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9192844449487025</v>
+        <v>7</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.938773261421363</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.16170637970797</v>
       </c>
     </row>
@@ -4748,72 +4706,66 @@
         <v>6.100554303129909e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.2323896321371767</v>
+        <v>1.587329985460495e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.599036304218626</v>
+        <v>1.668472595001252e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.587329985460495e-06</v>
+        <v>0.03382846954754335</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.668472595001252e-06</v>
+        <v>0.06921316840995949</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.03382846954754335</v>
+        <v>0.005934866156614154</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.06921316840995949</v>
+        <v>1.408109857608777</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.005934866156614154</v>
+        <v>1.327600801652823</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.32612921518768</v>
+        <v>4.200432973939529</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.327600801652823</v>
+        <v>1.669632500270832e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.200432973939529</v>
+        <v>14715633.79721181</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.669632500270832e-14</v>
+        <v>6.440468344398923e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>14715633.79721181</v>
+        <v>3.615587143280471</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>6.440468344398923e-06</v>
+        <v>0.0001840853932663772</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>3.615587143280471</v>
+        <v>11.42372411193033</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001840853932663772</v>
+        <v>1.137292657944554</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>11.42372411193033</v>
+        <v>0.0240234149027428</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.137292657944554</v>
+        <v>2.385526018048919</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0240234149027428</v>
+        <v>0.9237452226147025</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.385526018048919</v>
+        <v>1.907375496845909</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9237452226147025</v>
+        <v>8</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.907375496845909</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1535563814283321</v>
       </c>
     </row>
@@ -4828,72 +4780,66 @@
         <v>6.08378951232547e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.1680492916633128</v>
+        <v>1.587329985460495e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.621723835877761</v>
+        <v>1.688862680336495e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.587329985460495e-06</v>
+        <v>0.03313013639566781</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.688862680336495e-06</v>
+        <v>0.06993758330576837</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.03313013639566781</v>
+        <v>0.005988936768806915</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.06993758330576837</v>
+        <v>1.448023691160426</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.005988936768806915</v>
+        <v>1.394247874889734</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.360419484122728</v>
+        <v>3.863578054405061</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.394247874889734</v>
+        <v>1.496550864972665e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.863578054405061</v>
+        <v>15943797.55744919</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.496550864972665e-14</v>
+        <v>6.149646250798995e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>15943797.55744919</v>
+        <v>3.804302345615765</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>6.149646250798995e-06</v>
+        <v>0.0001773435879660221</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>3.804302345615765</v>
+        <v>10.04135421530519</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001773435879660221</v>
+        <v>1.214265612709386</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.04135421530519</v>
+        <v>0.0178813401828801</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.214265612709386</v>
+        <v>2.655981905616354</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0178813401828801</v>
+        <v>0.9295334283143215</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.655981905616354</v>
+        <v>1.899100506227073</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9295334283143215</v>
+        <v>8</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.899100506227073</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1470730956003268</v>
       </c>
     </row>
@@ -4908,72 +4854,66 @@
         <v>6.058085330716426e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.1047562668234062</v>
+        <v>1.587329985460495e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.633232587273616</v>
+        <v>1.708842406431598e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.587329985460495e-06</v>
+        <v>0.03272621331454072</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.708842406431598e-06</v>
+        <v>0.0705799978791766</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.03272621331454072</v>
+        <v>0.006052651939686728</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.0705799978791766</v>
+        <v>1.535869679584058</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.006052651939686728</v>
+        <v>1.330519740164393</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.435264334673051</v>
+        <v>4.248906387559733</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.330519740164393</v>
+        <v>1.259124503586744e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.248906387559733</v>
+        <v>16683568.14184807</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.259124503586744e-14</v>
+        <v>6.628284869091617e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>16683568.14184807</v>
+        <v>3.504665349514623</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>6.628284869091617e-06</v>
+        <v>0.0001359882635793005</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>3.504665349514623</v>
+        <v>7.36230144423788</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001359882635793005</v>
+        <v>1.569080530007545</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.36230144423788</v>
+        <v>0.007371037472717841</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.569080530007545</v>
+        <v>3.083429983038136</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.007371037472717841</v>
+        <v>0.9345555877708278</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.083429983038136</v>
+        <v>1.832709442664211</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9345555877708278</v>
+        <v>7</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.832709442664211</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.184315506336722</v>
       </c>
     </row>
@@ -5350,7 +5290,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.451624315979747</v>
+        <v>1.469141756925667</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.177836855193198</v>
@@ -5439,7 +5379,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.464022236522208</v>
+        <v>1.47760759627312</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.062096703139517</v>
@@ -5528,7 +5468,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.451887052218696</v>
+        <v>1.459025329563276</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.153523252270526</v>
@@ -5617,7 +5557,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.460363318722142</v>
+        <v>1.474058740522625</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.92607684412748</v>
@@ -5706,7 +5646,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.507347122429533</v>
+        <v>1.527852182545745</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.278583824638213</v>
@@ -5795,7 +5735,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.520883150731206</v>
+        <v>1.541448237686643</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.280386272363129</v>
@@ -5884,7 +5824,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.525841135001478</v>
+        <v>1.547396964066449</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.300760108243735</v>
@@ -5973,7 +5913,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.531596246543603</v>
+        <v>1.552486672021215</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.378947915604825</v>
@@ -6062,7 +6002,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.541026400176007</v>
+        <v>1.562633978254588</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.287372244153904</v>
@@ -6151,7 +6091,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.543706083819377</v>
+        <v>1.568181968235508</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.340016703118553</v>
@@ -6240,7 +6180,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.544488720941244</v>
+        <v>1.569232454251758</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.325872969756239</v>
@@ -6329,7 +6269,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.550198128694352</v>
+        <v>1.576490187769659</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.290163082024558</v>
@@ -6418,7 +6358,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.574919072073007</v>
+        <v>1.597593111111079</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.40194414385362</v>
@@ -6507,7 +6447,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.579065370714961</v>
+        <v>1.600148780132917</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.266665940106839</v>
@@ -6596,7 +6536,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.574480269032202</v>
+        <v>1.597483181805737</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.34855342743931</v>
@@ -6685,7 +6625,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.52677436426938</v>
+        <v>1.556733391126355</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.048768233076538</v>
@@ -6774,7 +6714,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.52470302693772</v>
+        <v>1.546747092592774</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.174981781609343</v>
@@ -6863,7 +6803,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.574473712557517</v>
+        <v>1.600256243744529</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.951141661919109</v>
@@ -6952,7 +6892,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.605520303469633</v>
+        <v>1.627871042830421</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.029738302388329</v>
@@ -7041,7 +6981,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.576593131771179</v>
+        <v>1.59057145495663</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.036697251112328</v>
@@ -7130,7 +7070,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.557221460664844</v>
+        <v>1.579929197549658</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.057473597146756</v>
@@ -7219,7 +7159,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.542098385130234</v>
+        <v>1.563029853651662</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.044168431600116</v>
@@ -7308,7 +7248,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.545393791178665</v>
+        <v>1.56901675680006</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.064549007615193</v>
@@ -7397,7 +7337,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.545210107810426</v>
+        <v>1.567845865184521</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.115117958907549</v>
@@ -7486,7 +7426,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.545740693720295</v>
+        <v>1.568237968399687</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.030698496559661</v>
@@ -7575,7 +7515,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.559593990871554</v>
+        <v>1.589518565960746</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.430400432247825</v>
@@ -7664,7 +7604,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.335296728151365</v>
+        <v>1.331483618857148</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.481751886217701</v>
@@ -7753,7 +7693,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.324041659732966</v>
+        <v>1.321431914793919</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.483332831885176</v>
@@ -7842,7 +7782,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.322746584121961</v>
+        <v>1.322239873542231</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.491724739079492</v>
@@ -7931,7 +7871,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.328048893359737</v>
+        <v>1.322442368143957</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.506751501657794</v>
@@ -8020,7 +7960,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.340465092117875</v>
+        <v>1.335261813732124</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.47316127662547</v>
@@ -8109,7 +8049,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.32427759281559</v>
+        <v>1.320621732653736</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.485215833579607</v>
@@ -8198,7 +8138,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.326417941518979</v>
+        <v>1.324239381638393</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.489731698652391</v>
@@ -8287,7 +8227,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.328505845895087</v>
+        <v>1.32585415212932</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.500499936176145</v>
@@ -8376,7 +8316,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.337665296732562</v>
+        <v>1.337778742124264</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.493920282091418</v>
@@ -8465,7 +8405,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.292380285954842</v>
+        <v>1.28112512219579</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.550845983679272</v>
@@ -8554,7 +8494,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.296502572295187</v>
+        <v>1.300764146854293</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.579067629665564</v>
@@ -8643,7 +8583,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.311913113962748</v>
+        <v>1.322464330918206</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.594112384170322</v>
@@ -8732,7 +8672,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.332953874063472</v>
+        <v>1.345508786847532</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.607450256611692</v>
@@ -8821,7 +8761,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.33050375940049</v>
+        <v>1.342680571438233</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.621073781984826</v>
@@ -8910,7 +8850,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.378273273586725</v>
+        <v>1.392191520521566</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.488277142786978</v>
@@ -8999,7 +8939,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.447358697094382</v>
+        <v>1.481724031751137</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.82946561079219</v>
@@ -9088,7 +9028,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.458875006712034</v>
+        <v>1.494059472057792</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.778837223687448</v>
@@ -9177,7 +9117,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.463226358365229</v>
+        <v>1.496208313450785</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.770337907194683</v>
@@ -9266,7 +9206,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.463656738152563</v>
+        <v>1.497935786026297</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.782293296036407</v>
@@ -9355,7 +9295,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.448169988590028</v>
+        <v>1.48167857516088</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.807553171661631</v>
@@ -9444,7 +9384,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.472628806116439</v>
+        <v>1.507928767752986</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.793315835861769</v>
@@ -9533,7 +9473,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.477760276410521</v>
+        <v>1.514175410630838</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.762122794437283</v>
@@ -9622,7 +9562,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.477461866952793</v>
+        <v>1.51465125548577</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.768195375270765</v>
@@ -9711,7 +9651,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.490679317746808</v>
+        <v>1.523872294988874</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.777189451543517</v>
@@ -9800,7 +9740,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.664011072904215</v>
+        <v>1.704773303036076</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.027325385889951</v>
@@ -9889,7 +9829,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.694237845066241</v>
+        <v>1.72065552416535</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.40030904322774</v>
@@ -9978,7 +9918,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.687452452023555</v>
+        <v>1.704932317828462</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.621027590938739</v>
@@ -10264,7 +10204,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.533945168996684</v>
+        <v>1.524353108644424</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.941435361026615</v>
@@ -10353,7 +10293,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.52929424977947</v>
+        <v>1.518793407810664</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.958677650906542</v>
@@ -10442,7 +10382,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.45893925068979</v>
+        <v>1.451359263284725</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.949151823636841</v>
@@ -10531,7 +10471,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.518591353048823</v>
+        <v>1.513872683643056</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.758510945733444</v>
@@ -10620,7 +10560,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.553261656004652</v>
+        <v>1.544840691832509</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.026188579993234</v>
@@ -10709,7 +10649,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.553592390050589</v>
+        <v>1.542951586457942</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.020121878169344</v>
@@ -10798,7 +10738,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.552377463743113</v>
+        <v>1.541406336947062</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.028220629219889</v>
@@ -10887,7 +10827,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.555774172863268</v>
+        <v>1.546914426392909</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.036904623255237</v>
@@ -10976,7 +10916,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.546145057097986</v>
+        <v>1.538329814708006</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.001276103618717</v>
@@ -11065,7 +11005,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.543378848017667</v>
+        <v>1.537815301640815</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.035187998069509</v>
@@ -11154,7 +11094,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.537692352862952</v>
+        <v>1.533223273005391</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.017218733943786</v>
@@ -11243,7 +11183,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.546640333643732</v>
+        <v>1.541240924589068</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.034179328420078</v>
@@ -11332,7 +11272,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.538128837262789</v>
+        <v>1.532157743160991</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.0069117755224</v>
@@ -11421,7 +11361,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.534011303975771</v>
+        <v>1.530961231250747</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.05035211249681</v>
@@ -11510,7 +11450,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.513749370259054</v>
+        <v>1.510771069522759</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.030034341069319</v>
@@ -11599,7 +11539,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.443837635987936</v>
+        <v>1.44672720058006</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.881758876789593</v>
@@ -11688,7 +11628,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.43003563693031</v>
+        <v>1.427204389960169</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.923506831619018</v>
@@ -11777,7 +11717,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.488597664880637</v>
+        <v>1.487947351294135</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.927478844356918</v>
@@ -11866,7 +11806,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.47947888399918</v>
+        <v>1.472655079512506</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.818299673130587</v>
@@ -11955,7 +11895,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.475696810287698</v>
+        <v>1.467206030672645</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.845556389590004</v>
@@ -12044,7 +11984,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.479206813213284</v>
+        <v>1.474615070408908</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.87478615991728</v>
@@ -12133,7 +12073,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.478250493853141</v>
+        <v>1.471621215452981</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.840810090076468</v>
@@ -12222,7 +12162,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.485988372673663</v>
+        <v>1.48316563811429</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.845054028279188</v>
@@ -12311,7 +12251,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.493304817528622</v>
+        <v>1.490588002428765</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.891384220475169</v>
@@ -12400,7 +12340,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.466677808527874</v>
+        <v>1.461568170025736</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.840945376539513</v>
@@ -12489,7 +12429,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.415095778906496</v>
+        <v>1.43538153167818</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.330714926570291</v>
@@ -12578,7 +12518,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.138591431917847</v>
+        <v>1.131475908063531</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.398753868623567</v>
@@ -12667,7 +12607,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.13171224889359</v>
+        <v>1.125639503724648</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.404114071877591</v>
@@ -12756,7 +12696,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.134007972196924</v>
+        <v>1.129193636136605</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.407724015685752</v>
@@ -12845,7 +12785,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.141591491012067</v>
+        <v>1.137420540798734</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.403725839870518</v>
@@ -12934,7 +12874,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.144788277153</v>
+        <v>1.142259829808488</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.403048875263523</v>
@@ -13023,7 +12963,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.148651909342681</v>
+        <v>1.148315427914775</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.401913313798387</v>
@@ -13112,7 +13052,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.150089415491148</v>
+        <v>1.150687524902645</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.404788586030214</v>
@@ -13201,7 +13141,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.152146822811517</v>
+        <v>1.153612412083179</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.405990106782256</v>
@@ -13290,7 +13230,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.157710961323592</v>
+        <v>1.161004358485315</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.40960131507247</v>
@@ -13379,7 +13319,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.1555971167904</v>
+        <v>1.15857422766913</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.41584862529827</v>
@@ -13468,7 +13408,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.157379295983135</v>
+        <v>1.161983971472288</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.419695270300661</v>
@@ -13557,7 +13497,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.162564119329185</v>
+        <v>1.168794664300413</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.424807213094925</v>
@@ -13646,7 +13586,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.170668517237957</v>
+        <v>1.178621262731347</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.430346855305298</v>
@@ -13735,7 +13675,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.178757739155899</v>
+        <v>1.18757339866378</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.416706885155445</v>
@@ -13824,7 +13764,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.319000155233235</v>
+        <v>1.35002810292248</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.305780107816624</v>
@@ -13913,7 +13853,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.558046296100822</v>
+        <v>1.590370228720374</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.960101529049272</v>
@@ -14002,7 +13942,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.619055931376081</v>
+        <v>1.645727647306989</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.25341856283751</v>
@@ -14091,7 +14031,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.644375160468311</v>
+        <v>1.665704374123415</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.132879849244991</v>
@@ -14180,7 +14120,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.646861135292507</v>
+        <v>1.66446316198994</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.227478363918745</v>
@@ -14269,7 +14209,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.642685115796578</v>
+        <v>1.659007545590023</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.269583108030334</v>
@@ -14358,7 +14298,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.667979154768361</v>
+        <v>1.677259195500298</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.242925822273291</v>
@@ -14447,7 +14387,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.668203333488888</v>
+        <v>1.675883820346843</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.208936174292003</v>
@@ -14536,7 +14476,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.650762503257467</v>
+        <v>1.66265038461</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.200634662964307</v>
@@ -14625,7 +14565,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.643285474854545</v>
+        <v>1.652207408726676</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.131753496775006</v>
@@ -14714,7 +14654,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.727868775032269</v>
+        <v>1.720368620260563</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.296347470212328</v>
@@ -14803,7 +14743,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.740584566029605</v>
+        <v>1.725863127942678</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.31662663898379</v>
@@ -14892,7 +14832,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.737747840122646</v>
+        <v>1.714926990975316</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.766200173009782</v>
@@ -15178,7 +15118,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.54813327772634</v>
+        <v>1.539450141436071</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.053119382647056</v>
@@ -15267,7 +15207,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.555836804318618</v>
+        <v>1.544406064924078</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.079730816777878</v>
@@ -15356,7 +15296,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.513089907759776</v>
+        <v>1.507672146092265</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.111258648429581</v>
@@ -15445,7 +15385,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.582050392541262</v>
+        <v>1.57742691579268</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.846066172149369</v>
@@ -15534,7 +15474,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.627921328716474</v>
+        <v>1.617199199130401</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.233766758303191</v>
@@ -15623,7 +15563,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.64243932517498</v>
+        <v>1.630941789708717</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.190644550931171</v>
@@ -15712,7 +15652,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.643996295793863</v>
+        <v>1.633616831125021</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.210872730528274</v>
@@ -15801,7 +15741,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.646691716539067</v>
+        <v>1.634359299625014</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.231705310373755</v>
@@ -15890,7 +15830,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.657854023088705</v>
+        <v>1.644195362431364</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.250674111790086</v>
@@ -15979,7 +15919,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.660751325826127</v>
+        <v>1.648694168781086</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.245740091330181</v>
@@ -16068,7 +16008,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.665192934938299</v>
+        <v>1.650961960800569</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.252073267225495</v>
@@ -16157,7 +16097,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.667566890899525</v>
+        <v>1.654901897814724</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.229183798790947</v>
@@ -16246,7 +16186,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.672941616792385</v>
+        <v>1.659437531840498</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.236534220698252</v>
@@ -16335,7 +16275,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.673302533000049</v>
+        <v>1.658968001739717</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.21679750849248</v>
@@ -16424,7 +16364,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.660311084387607</v>
+        <v>1.645234877529513</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.232301671962044</v>
@@ -16513,7 +16453,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.581061701940227</v>
+        <v>1.580451527388176</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.025428925065169</v>
@@ -16602,7 +16542,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.561990096209595</v>
+        <v>1.561644971698876</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.08794569264215</v>
@@ -16691,7 +16631,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.608901178859649</v>
+        <v>1.606224175693719</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.074865841396195</v>
@@ -16780,7 +16720,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.596716852995234</v>
+        <v>1.591499038525213</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.981515240733145</v>
@@ -16869,7 +16809,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.590965782371847</v>
+        <v>1.582162473717231</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.960200425287562</v>
@@ -16958,7 +16898,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.585521558811917</v>
+        <v>1.58105227891641</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.967179299613295</v>
@@ -17047,7 +16987,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.587904935373227</v>
+        <v>1.586854517768323</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.980709846454898</v>
@@ -17136,7 +17076,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.586066218335978</v>
+        <v>1.585650261124836</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.981058515721331</v>
@@ -17225,7 +17165,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.590651043178446</v>
+        <v>1.590015284659791</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.98093891199574</v>
@@ -17314,7 +17254,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.579090391528344</v>
+        <v>1.577865407605736</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.964035676406415</v>
@@ -17403,7 +17343,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.491225510742538</v>
+        <v>1.503926525947079</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.452858556022166</v>
@@ -17492,7 +17432,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.272337618709545</v>
+        <v>1.267777116394064</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.451090473286886</v>
@@ -17581,7 +17521,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.263155147423601</v>
+        <v>1.256996175804553</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.455887089347337</v>
@@ -17670,7 +17610,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.261649032858496</v>
+        <v>1.255176378464586</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.461515536768809</v>
@@ -17759,7 +17699,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.265816898903663</v>
+        <v>1.257564286808191</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.471159842043961</v>
@@ -17848,7 +17788,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.272531216850458</v>
+        <v>1.265331178008352</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.446605636168632</v>
@@ -17937,7 +17877,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.270374750819438</v>
+        <v>1.261024518999829</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.449311857223714</v>
@@ -18026,7 +17966,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.275589034972757</v>
+        <v>1.26762106355714</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.445057740603726</v>
@@ -18115,7 +18055,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.273327711311327</v>
+        <v>1.26708356106998</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.449241798696842</v>
@@ -18204,7 +18144,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.278574302760251</v>
+        <v>1.273736441074373</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.449489681627182</v>
@@ -18293,7 +18233,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.298338955665334</v>
+        <v>1.297814695437441</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.476948609093256</v>
@@ -18382,7 +18322,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.324947610765024</v>
+        <v>1.331362891760806</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.505924748570884</v>
@@ -18471,7 +18411,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.337435832687267</v>
+        <v>1.347048275728804</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.516968913805176</v>
@@ -18560,7 +18500,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.342224953884677</v>
+        <v>1.354862448170665</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.520095488350887</v>
@@ -18649,7 +18589,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.351527710745017</v>
+        <v>1.364019689559895</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.539233844040035</v>
@@ -18738,7 +18678,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.503192916870973</v>
+        <v>1.529289683674347</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.449622132508717</v>
@@ -18827,7 +18767,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.660919858388962</v>
+        <v>1.679278144290391</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.418090342452806</v>
@@ -18916,7 +18856,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.698794895345924</v>
+        <v>1.713192491561409</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.466610677742074</v>
@@ -19005,7 +18945,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.705583243390668</v>
+        <v>1.71563763765127</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.479707804077893</v>
@@ -19094,7 +19034,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.70895352948236</v>
+        <v>1.720194963519571</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.423050161146604</v>
@@ -19183,7 +19123,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.702406409547813</v>
+        <v>1.713500849170926</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.413663708960075</v>
@@ -19272,7 +19212,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.732313862864242</v>
+        <v>1.74086676494877</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.44732222554017</v>
@@ -19361,7 +19301,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.736529358914212</v>
+        <v>1.739611516694525</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.333554540570057</v>
@@ -19450,7 +19390,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.731838311165236</v>
+        <v>1.736723376423686</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.382714062479867</v>
@@ -19539,7 +19479,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.727572517319888</v>
+        <v>1.730838054260151</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.422662720676329</v>
@@ -19628,7 +19568,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.779939853799234</v>
+        <v>1.772363680847457</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.319648160815256</v>
@@ -19717,7 +19657,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.749027339203454</v>
+        <v>1.726112849958021</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.274619150895584</v>
@@ -19806,7 +19746,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.731586814930553</v>
+        <v>1.70314696948312</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.961211373265277</v>
@@ -20092,7 +20032,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.581732977130544</v>
+        <v>1.55818076171963</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.189110338874613</v>
@@ -20181,7 +20121,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.577866256122398</v>
+        <v>1.551519350726382</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.15882193727288</v>
@@ -20270,7 +20210,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.547862458780817</v>
+        <v>1.531051914011351</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.190055382316539</v>
@@ -20359,7 +20299,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.600458856805735</v>
+        <v>1.581428252218523</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.919917865027813</v>
@@ -20448,7 +20388,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.634544176461474</v>
+        <v>1.606367933783453</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.427728703454028</v>
@@ -20537,7 +20477,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.646114149915966</v>
+        <v>1.61467977449076</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.402092084526611</v>
@@ -20626,7 +20566,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.64996982043718</v>
+        <v>1.620214923759838</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.427551576221443</v>
@@ -20715,7 +20655,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.650206185468387</v>
+        <v>1.624623843421937</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.343297884240555</v>
@@ -20804,7 +20744,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.652787216834235</v>
+        <v>1.625598252873569</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.379011092384617</v>
@@ -20893,7 +20833,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.659466573790443</v>
+        <v>1.631394603438059</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.430331623070947</v>
@@ -20982,7 +20922,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.657924596130876</v>
+        <v>1.626406096567421</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.400329123993893</v>
@@ -21071,7 +21011,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.657101316787789</v>
+        <v>1.623602154907962</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.390273263453914</v>
@@ -21160,7 +21100,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.648102909078032</v>
+        <v>1.617975442246922</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.402335862618611</v>
@@ -21249,7 +21189,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.64557794605945</v>
+        <v>1.614872616018023</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.35177544758467</v>
@@ -21338,7 +21278,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.642557025618695</v>
+        <v>1.612783937043819</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.430168065311838</v>
@@ -21427,7 +21367,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.57284363468093</v>
+        <v>1.557767166024732</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.16234971534027</v>
@@ -21516,7 +21456,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.562108288761243</v>
+        <v>1.551389478299357</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.165353712449978</v>
@@ -21605,7 +21545,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.603388993881506</v>
+        <v>1.58268929637208</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.120895097015107</v>
@@ -21694,7 +21634,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.589625917003813</v>
+        <v>1.56614623113585</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.067041622426475</v>
@@ -21783,7 +21723,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.580374024005514</v>
+        <v>1.560114390022694</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.06831999794965</v>
@@ -21872,7 +21812,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.573160614723286</v>
+        <v>1.555860260531311</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.028649454450192</v>
@@ -21961,7 +21901,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.575248180542187</v>
+        <v>1.554646484763169</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.08187188544124</v>
@@ -22050,7 +21990,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.580504328356496</v>
+        <v>1.56287797724732</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.085433557047351</v>
@@ -22139,7 +22079,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.57873164899829</v>
+        <v>1.562102697340388</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.065219387098442</v>
@@ -22228,7 +22168,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.563061082846095</v>
+        <v>1.550288629752245</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.063313018984043</v>
@@ -22317,7 +22257,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.476124444747461</v>
+        <v>1.477902383797628</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.424438039931441</v>
@@ -22406,7 +22346,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.243617029048181</v>
+        <v>1.241307499118655</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.457677381049632</v>
@@ -22495,7 +22435,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.236885644612028</v>
+        <v>1.232791782063888</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.464676866243611</v>
@@ -22584,7 +22524,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.2325449830611</v>
+        <v>1.227643468083929</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.464169186530952</v>
@@ -22673,7 +22613,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.238126433309963</v>
+        <v>1.23293383182043</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.466707853902445</v>
@@ -22762,7 +22702,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.247271132900371</v>
+        <v>1.244575525833622</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.45556906205834</v>
@@ -22851,7 +22791,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.246237639539758</v>
+        <v>1.243095673415378</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.456971578451027</v>
@@ -22940,7 +22880,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.241768837942106</v>
+        <v>1.240583613129943</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.457898339086095</v>
@@ -23029,7 +22969,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.245334841024523</v>
+        <v>1.244027315808637</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.455823936192269</v>
@@ -23118,7 +23058,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.243752745593562</v>
+        <v>1.242606692896276</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.455102238730164</v>
@@ -23207,7 +23147,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.256827745990947</v>
+        <v>1.262476538558881</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.477732213622083</v>
@@ -23296,7 +23236,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.279598302849658</v>
+        <v>1.289735560024188</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.498533687050069</v>
@@ -23385,7 +23325,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.281734933925657</v>
+        <v>1.290831637637396</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.502616503629361</v>
@@ -23474,7 +23414,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.283506872208109</v>
+        <v>1.293793605877275</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.499984705168957</v>
@@ -23563,7 +23503,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.286900759118203</v>
+        <v>1.296674265430991</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.510704796513728</v>
@@ -23652,7 +23592,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.439389027943632</v>
+        <v>1.462144220378858</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.43779506401789</v>
@@ -23741,7 +23681,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.609479082176729</v>
+        <v>1.619461820295937</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.281138150269743</v>
@@ -23830,7 +23770,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.651959967782427</v>
+        <v>1.661654199781563</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.448258081198861</v>
@@ -23919,7 +23859,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.660369539330969</v>
+        <v>1.668668580839821</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.476119599100031</v>
@@ -24008,7 +23948,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.659998962875509</v>
+        <v>1.664794667455129</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.378588158636807</v>
@@ -24097,7 +24037,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.649112782505899</v>
+        <v>1.652332942657342</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.461356261890117</v>
@@ -24186,7 +24126,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.668123871749915</v>
+        <v>1.667802195343615</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.445824211767575</v>
@@ -24275,7 +24215,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.693156298871912</v>
+        <v>1.686915427203331</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.300100140553256</v>
@@ -24364,7 +24304,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.690028398581404</v>
+        <v>1.683664110035274</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.348189983994858</v>
@@ -24453,7 +24393,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.695151770747131</v>
+        <v>1.687226471936864</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.429603045940261</v>
@@ -24542,7 +24482,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.738711764338652</v>
+        <v>1.706504310339483</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.574981905068958</v>
@@ -24631,7 +24571,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.716904487288823</v>
+        <v>1.676467844212798</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.58806608208727</v>
@@ -24720,7 +24660,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.724066067563652</v>
+        <v>1.683372561241049</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.681342380714327</v>
@@ -25006,7 +24946,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.578909442311493</v>
+        <v>1.555326867918119</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.08501839661498</v>
@@ -25095,7 +25035,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.584700115405754</v>
+        <v>1.563043036224459</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.075366342250753</v>
@@ -25184,7 +25124,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.523335571287481</v>
+        <v>1.50178764986954</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.135206597322677</v>
@@ -25273,7 +25213,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.551504577396586</v>
+        <v>1.531663855752619</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.885011926579942</v>
@@ -25362,7 +25302,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.566730181220309</v>
+        <v>1.557031049290313</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.171183314125988</v>
@@ -25451,7 +25391,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.566188067883523</v>
+        <v>1.560990211570738</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.1186106984216</v>
@@ -25540,7 +25480,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.56243594064149</v>
+        <v>1.559184771453241</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.148084324643865</v>
@@ -25629,7 +25569,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.557877664770924</v>
+        <v>1.55308232265254</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.12979951237501</v>
@@ -25718,7 +25658,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.557286160344296</v>
+        <v>1.549277994100664</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.134211821143953</v>
@@ -25807,7 +25747,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.543244979784682</v>
+        <v>1.540520324357224</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.137826447005841</v>
@@ -25896,7 +25836,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.535299034384206</v>
+        <v>1.533614892156184</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.098054962307123</v>
@@ -25985,7 +25925,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.533157338767594</v>
+        <v>1.53098641774938</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.142248829113906</v>
@@ -26074,7 +26014,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.523371833621041</v>
+        <v>1.522182762101477</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.132414764675158</v>
@@ -26163,7 +26103,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.518420309792082</v>
+        <v>1.510903197831419</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.10237222864622</v>
@@ -26252,7 +26192,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.51678692444883</v>
+        <v>1.5068608814447</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.096688722210273</v>
@@ -26341,7 +26281,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.458446918314413</v>
+        <v>1.45310999945576</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.022223864075873</v>
@@ -26430,7 +26370,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.439173210432493</v>
+        <v>1.431030755985086</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.045956904907269</v>
@@ -26519,7 +26459,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.493300268690804</v>
+        <v>1.484699956837866</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.071360401417188</v>
@@ -26608,7 +26548,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.499375692867828</v>
+        <v>1.483910323538176</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.018064498199591</v>
@@ -26697,7 +26637,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.493798761581416</v>
+        <v>1.480079189212298</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.955298844830935</v>
@@ -26786,7 +26726,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.485111189518614</v>
+        <v>1.472680842796574</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.919747297847479</v>
@@ -26875,7 +26815,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.486141356641778</v>
+        <v>1.475500815604831</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.947153228530027</v>
@@ -26964,7 +26904,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.49045125278758</v>
+        <v>1.481701855565908</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.975396770033308</v>
@@ -27053,7 +26993,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.501646775785599</v>
+        <v>1.494102123122058</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.91177562931328</v>
@@ -27142,7 +27082,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.483054240607085</v>
+        <v>1.475950028962475</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.001697367666102</v>
@@ -27231,7 +27171,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.46504797313468</v>
+        <v>1.427189730388635</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.359037595795335</v>
@@ -27320,7 +27260,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.185105590977747</v>
+        <v>1.18407254001459</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.414937210510377</v>
@@ -27409,7 +27349,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.181386358787331</v>
+        <v>1.180294563559819</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.420555788617465</v>
@@ -27498,7 +27438,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.173309418259106</v>
+        <v>1.172790990843672</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.427911604420394</v>
@@ -27587,7 +27527,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.176966389413816</v>
+        <v>1.175303893765463</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.436605995109359</v>
@@ -27676,7 +27616,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.17770084949979</v>
+        <v>1.177190283484981</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.420627938471414</v>
@@ -27765,7 +27705,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.1785727004472</v>
+        <v>1.176308383852365</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.42234558451576</v>
@@ -27854,7 +27794,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.174545658456625</v>
+        <v>1.172863425580185</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.424708737526251</v>
@@ -27943,7 +27883,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.173639806162293</v>
+        <v>1.172993573756213</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.423693628046099</v>
@@ -28032,7 +27972,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.177763842891888</v>
+        <v>1.177974656208014</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.42436511413095</v>
@@ -28121,7 +28061,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.17551610440391</v>
+        <v>1.176362939244999</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.432247586604209</v>
@@ -28210,7 +28150,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.176880973813976</v>
+        <v>1.180394196260404</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.438316923405469</v>
@@ -28299,7 +28239,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.178454829889995</v>
+        <v>1.181887026851703</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.438685156769587</v>
@@ -28388,7 +28328,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.181232434149819</v>
+        <v>1.185476264525422</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.441065217820946</v>
@@ -28477,7 +28417,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.186481307750769</v>
+        <v>1.190104094588232</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.425440376770652</v>
@@ -28566,7 +28506,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.283165040145482</v>
+        <v>1.296998642465151</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.34907559085797</v>
@@ -28655,7 +28595,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.419132713568495</v>
+        <v>1.432928790345743</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.932549548984353</v>
@@ -28744,7 +28684,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.456505288619589</v>
+        <v>1.467544574705718</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.24388487898374</v>
@@ -28833,7 +28773,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.511072680636293</v>
+        <v>1.519208480480047</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.331817832840326</v>
@@ -28922,7 +28862,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.516908754523779</v>
+        <v>1.519667828767821</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.388523778679806</v>
@@ -29011,7 +28951,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.517694818285168</v>
+        <v>1.517358766980801</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.398447008335902</v>
@@ -29100,7 +29040,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.549619948528144</v>
+        <v>1.551822908806215</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.159508950624375</v>
@@ -29189,7 +29129,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.590909109927817</v>
+        <v>1.588816581392885</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.364203784580383</v>
@@ -29278,7 +29218,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.574923168846452</v>
+        <v>1.572909285627835</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.369648084645144</v>
@@ -29367,7 +29307,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.569812409466823</v>
+        <v>1.563864039378213</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.307853060655893</v>
@@ -29456,7 +29396,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.639009521255843</v>
+        <v>1.615844385307697</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.425873709574295</v>
@@ -29545,7 +29485,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.65409100380625</v>
+        <v>1.611779763667867</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.815410439154304</v>
@@ -29634,7 +29574,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.66415359570324</v>
+        <v>1.62009408901807</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.311930179274655</v>
@@ -29920,7 +29860,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.499036752206231</v>
+        <v>1.49979467961559</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.150783037966251</v>
@@ -30009,7 +29949,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.5010096423426</v>
+        <v>1.49897651579202</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.088192387136615</v>
@@ -30098,7 +30038,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.482254469760682</v>
+        <v>1.473546001430977</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.113686864975707</v>
@@ -30187,7 +30127,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.505711701478458</v>
+        <v>1.50300937312093</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.927833462438258</v>
@@ -30276,7 +30216,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.54415809064679</v>
+        <v>1.54357333026337</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.277063816676418</v>
@@ -30365,7 +30305,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.551129948927568</v>
+        <v>1.550777582205805</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.306269285626696</v>
@@ -30454,7 +30394,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.556770002963161</v>
+        <v>1.560575607271858</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.234439346858177</v>
@@ -30543,7 +30483,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.561432620016562</v>
+        <v>1.562453464498419</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.202298167696638</v>
@@ -30632,7 +30572,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.575524309805387</v>
+        <v>1.573524960600374</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.17593196514175</v>
@@ -30721,7 +30661,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.579672006945766</v>
+        <v>1.579044854492636</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.25074383693831</v>
@@ -30810,7 +30750,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.577485818658553</v>
+        <v>1.574386846274</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.328689873404734</v>
@@ -30899,7 +30839,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.580503808042444</v>
+        <v>1.573831715988647</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.248243281009127</v>
@@ -30988,7 +30928,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.58590117897895</v>
+        <v>1.580816768632606</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.295004365808384</v>
@@ -31077,7 +31017,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.583686600649915</v>
+        <v>1.580628339848612</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.222761549995484</v>
@@ -31166,7 +31106,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.575707289562714</v>
+        <v>1.572446634955229</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.218415089698251</v>
@@ -31255,7 +31195,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.524062100098874</v>
+        <v>1.527208040071501</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.079661920163995</v>
@@ -31344,7 +31284,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.520109135340017</v>
+        <v>1.520803398187773</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.106539151597994</v>
@@ -31433,7 +31373,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.571559930136172</v>
+        <v>1.575463789234194</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.008992441936964</v>
@@ -31522,7 +31462,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.5806836973403</v>
+        <v>1.579453468577654</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.04982237341023</v>
@@ -31611,7 +31551,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.574363453717705</v>
+        <v>1.573986667751425</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.045927462125483</v>
@@ -31700,7 +31640,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.56019239704766</v>
+        <v>1.562811784917734</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.033013021135126</v>
@@ -31789,7 +31729,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.547852798602234</v>
+        <v>1.551086177675795</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.063718210643746</v>
@@ -31878,7 +31818,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.545773786449644</v>
+        <v>1.55520199681628</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.04756003813597</v>
@@ -31967,7 +31907,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.543830720663824</v>
+        <v>1.549959907312022</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.058955872332329</v>
@@ -32056,7 +31996,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.540574417756317</v>
+        <v>1.547194759380748</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.036294387732803</v>
@@ -32145,7 +32085,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.55220912415179</v>
+        <v>1.57414818455756</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.388621722260137</v>
@@ -32234,7 +32174,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.323163996945869</v>
+        <v>1.307972758454244</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.426015200819607</v>
@@ -32323,7 +32263,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.312952753488205</v>
+        <v>1.298053664261411</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.429734813821313</v>
@@ -32412,7 +32352,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.305759348256022</v>
+        <v>1.289792064785209</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.430226838575651</v>
@@ -32501,7 +32441,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.312769486923772</v>
+        <v>1.295032458466075</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.442530790692771</v>
@@ -32590,7 +32530,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.321315844756726</v>
+        <v>1.304146648074456</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.417164282274669</v>
@@ -32679,7 +32619,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.314104227111391</v>
+        <v>1.297067769658792</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.417025095962235</v>
@@ -32768,7 +32708,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.295903350919617</v>
+        <v>1.281968844239375</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.424795063196181</v>
@@ -32857,7 +32797,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.296161062417216</v>
+        <v>1.283351404385031</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.427572714949284</v>
@@ -32946,7 +32886,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.297572606846077</v>
+        <v>1.284653243572914</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.427478302991525</v>
@@ -33035,7 +32975,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.269504067711255</v>
+        <v>1.255450035912809</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.474275345864633</v>
@@ -33124,7 +33064,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.27037831772596</v>
+        <v>1.271446504008343</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.496846424404021</v>
@@ -33213,7 +33153,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.271300978590858</v>
+        <v>1.276004724281093</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.501870956460203</v>
@@ -33302,7 +33242,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.280785004762401</v>
+        <v>1.288268819917582</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.509335500356939</v>
@@ -33391,7 +33331,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.278477754184528</v>
+        <v>1.28651314354836</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.516894158820637</v>
@@ -33480,7 +33420,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.324632314574124</v>
+        <v>1.339267461568459</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.420262762137988</v>
@@ -33569,7 +33509,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.38193445886962</v>
+        <v>1.422319370273144</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.798845407999778</v>
@@ -33658,7 +33598,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.393047255426564</v>
+        <v>1.435239075451473</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.767308686704799</v>
@@ -33747,7 +33687,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.396495790946618</v>
+        <v>1.437992587094278</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.764576903768441</v>
@@ -33836,7 +33776,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.393668035968835</v>
+        <v>1.435645774890745</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.77397958070963</v>
@@ -33925,7 +33865,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.383555370908088</v>
+        <v>1.425213946081143</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.785482005957565</v>
@@ -34014,7 +33954,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.403863716927016</v>
+        <v>1.445902418972268</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.777676206058956</v>
@@ -34103,7 +34043,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.431984484970912</v>
+        <v>1.477808890091152</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.75279301874145</v>
@@ -34192,7 +34132,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.430759390787652</v>
+        <v>1.474868259871503</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.758696757644626</v>
@@ -34281,7 +34221,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.440713673494833</v>
+        <v>1.482304864309174</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.792532390648769</v>
@@ -34370,7 +34310,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.582271264513485</v>
+        <v>1.62356228786349</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.896285371845593</v>
@@ -34459,7 +34399,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.610923392655303</v>
+        <v>1.633794284443445</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.491065556325853</v>
@@ -34548,7 +34488,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.630012205502968</v>
+        <v>1.639096942882747</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.699817935867684</v>
